--- a/REGULAR/ONT/HERNANDEZ, DONATO.xlsx
+++ b/REGULAR/ONT/HERNANDEZ, DONATO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEFB81-9AA3-4CEE-ADFF-321B51279EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1C7C0-8C95-4FD0-84EB-044BC5022C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>12/26-29/2022</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1399,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.75</v>
+        <v>39.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2620,13 +2623,13 @@
         <v>44896</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
       <c r="D69" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>

--- a/REGULAR/ONT/HERNANDEZ, DONATO.xlsx
+++ b/REGULAR/ONT/HERNANDEZ, DONATO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB5E14-2F64-4CB8-A06F-259EC9F3E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView minimized="1" xWindow="3696" yWindow="3696" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -251,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -920,7 +921,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -937,25 +938,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1262,34 +1263,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="E64" sqref="E64"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="3696"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1311,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1331,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1351,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1358,7 +1359,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1371,7 +1372,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1388,7 +1389,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1432,7 +1433,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.5</v>
+        <v>28.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1442,12 +1443,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.5</v>
+        <v>72.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1470,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43252</v>
       </c>
@@ -1489,7 +1490,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43282</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -1549,7 +1550,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43374</v>
       </c>
@@ -1569,7 +1570,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43405</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43435</v>
       </c>
@@ -1609,7 +1610,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1628,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43466</v>
       </c>
@@ -1647,7 +1648,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43497</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43525</v>
       </c>
@@ -1687,7 +1688,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43556</v>
       </c>
@@ -1707,7 +1708,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43586</v>
       </c>
@@ -1727,7 +1728,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43617</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43647</v>
       </c>
@@ -1767,7 +1768,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43678</v>
       </c>
@@ -1787,7 +1788,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43709</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43739</v>
       </c>
@@ -1833,7 +1834,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43770</v>
       </c>
@@ -1853,7 +1854,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43800</v>
       </c>
@@ -1877,7 +1878,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>46</v>
       </c>
@@ -1895,7 +1896,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43831</v>
       </c>
@@ -1915,7 +1916,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43862</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43891</v>
       </c>
@@ -1955,7 +1956,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43922</v>
       </c>
@@ -1975,7 +1976,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43952</v>
       </c>
@@ -1995,7 +1996,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -2015,7 +2016,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44044</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44075</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -2095,7 +2096,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44136</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44166</v>
       </c>
@@ -2139,7 +2140,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>47</v>
       </c>
@@ -2157,7 +2158,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44197</v>
       </c>
@@ -2177,7 +2178,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44228</v>
       </c>
@@ -2197,7 +2198,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44256</v>
       </c>
@@ -2217,7 +2218,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44287</v>
       </c>
@@ -2237,7 +2238,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44317</v>
       </c>
@@ -2257,7 +2258,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44348</v>
       </c>
@@ -2277,7 +2278,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44378</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44409</v>
       </c>
@@ -2317,7 +2318,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44440</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44470</v>
       </c>
@@ -2357,7 +2358,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44501</v>
       </c>
@@ -2377,7 +2378,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44531</v>
       </c>
@@ -2401,7 +2402,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>48</v>
       </c>
@@ -2419,7 +2420,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44562</v>
       </c>
@@ -2439,7 +2440,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44593</v>
       </c>
@@ -2459,7 +2460,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44621</v>
       </c>
@@ -2479,7 +2480,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44652</v>
       </c>
@@ -2499,7 +2500,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44682</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44713</v>
       </c>
@@ -2545,7 +2546,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44743</v>
       </c>
@@ -2565,7 +2566,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44774</v>
       </c>
@@ -2585,7 +2586,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44805</v>
       </c>
@@ -2605,7 +2606,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44835</v>
       </c>
@@ -2625,7 +2626,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44866</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44896</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>58</v>
       </c>
@@ -2695,7 +2696,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44927</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44958</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>62</v>
@@ -2767,7 +2768,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44986</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45017</v>
       </c>
@@ -2813,7 +2814,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45047</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45078</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>63</v>
@@ -2887,7 +2888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45108</v>
       </c>
@@ -2907,22 +2908,24 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45139</v>
+        <v>45153</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="D80" s="39">
         <v>10</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -2931,10 +2934,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>45170</v>
-      </c>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -2949,10 +2950,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45200</v>
-      </c>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2967,10 +2966,8 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45231</v>
-      </c>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2985,10 +2982,8 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>45261</v>
-      </c>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3003,10 +2998,8 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>45292</v>
-      </c>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3021,10 +3014,8 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>45323</v>
-      </c>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3039,10 +3030,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>45352</v>
-      </c>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3057,10 +3046,8 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45383</v>
-      </c>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3075,10 +3062,8 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45413</v>
-      </c>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3093,10 +3078,8 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45444</v>
-      </c>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3111,10 +3094,8 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45474</v>
-      </c>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3129,10 +3110,8 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45505</v>
-      </c>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3147,10 +3126,8 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45536</v>
-      </c>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3165,10 +3142,8 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>45566</v>
-      </c>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3183,10 +3158,8 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>45597</v>
-      </c>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3201,10 +3174,8 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>45627</v>
-      </c>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3219,10 +3190,8 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>45658</v>
-      </c>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3237,10 +3206,8 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>45689</v>
-      </c>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3255,10 +3222,8 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>45717</v>
-      </c>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3273,10 +3238,8 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45748</v>
-      </c>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3291,10 +3254,8 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45778</v>
-      </c>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3309,10 +3270,8 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45809</v>
-      </c>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3327,10 +3286,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45839</v>
-      </c>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3345,10 +3302,8 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>45870</v>
-      </c>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3363,10 +3318,8 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>45901</v>
-      </c>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3381,10 +3334,8 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>45931</v>
-      </c>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3399,10 +3350,8 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>45962</v>
-      </c>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3417,10 +3366,8 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>45992</v>
-      </c>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3435,10 +3382,8 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>46023</v>
-      </c>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3453,10 +3398,8 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>46054</v>
-      </c>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3471,10 +3414,8 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>46082</v>
-      </c>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3489,10 +3430,8 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>46113</v>
-      </c>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3507,10 +3446,8 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>46143</v>
-      </c>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3525,10 +3462,8 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>46174</v>
-      </c>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3543,10 +3478,8 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>46204</v>
-      </c>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3561,10 +3494,8 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>46235</v>
-      </c>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3579,10 +3510,8 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>46266</v>
-      </c>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3597,10 +3526,8 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>46296</v>
-      </c>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3615,10 +3542,8 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>46327</v>
-      </c>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3633,10 +3558,8 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>46357</v>
-      </c>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3651,10 +3574,8 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>46388</v>
-      </c>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3669,10 +3590,8 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>46419</v>
-      </c>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3687,10 +3606,8 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>46447</v>
-      </c>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3705,10 +3622,8 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>46478</v>
-      </c>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3723,10 +3638,8 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>46508</v>
-      </c>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3741,10 +3654,8 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>46539</v>
-      </c>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3759,10 +3670,8 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
-        <v>46569</v>
-      </c>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3777,10 +3686,8 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40">
-        <v>46600</v>
-      </c>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3795,10 +3702,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>46631</v>
-      </c>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -3813,10 +3718,8 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40">
-        <v>46661</v>
-      </c>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -3831,10 +3734,8 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
-        <v>46692</v>
-      </c>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -3849,7 +3750,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3865,7 +3766,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -3896,10 +3797,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3922,28 +3823,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3956,7 +3857,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3985,7 +3886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3995,27 +3896,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="47">
+        <v>15</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>14</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4036,7 +3939,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4063,7 +3966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4089,7 +3992,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4115,7 +4018,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4141,7 +4044,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4167,7 +4070,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4193,7 +4096,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4219,7 +4122,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4245,7 +4148,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4265,7 +4168,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4285,7 +4188,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4305,7 +4208,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4326,7 +4229,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4347,7 +4250,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4368,7 +4271,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4389,7 +4292,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4410,7 +4313,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4431,7 +4334,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4452,7 +4355,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4473,7 +4376,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4494,7 +4397,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4515,7 +4418,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4536,7 +4439,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4557,7 +4460,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4578,7 +4481,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4599,7 +4502,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4620,7 +4523,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4641,7 +4544,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4662,7 +4565,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4683,7 +4586,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4704,7 +4607,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4725,7 +4628,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4734,7 +4637,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4743,7 +4646,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4752,7 +4655,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4761,7 +4664,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4770,7 +4673,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4779,7 +4682,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4788,7 +4691,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4797,7 +4700,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4806,7 +4709,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4815,7 +4718,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4824,7 +4727,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4833,7 +4736,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4842,7 +4745,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4851,7 +4754,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4860,7 +4763,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4869,7 +4772,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4878,7 +4781,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4887,7 +4790,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4896,7 +4799,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4905,7 +4808,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4914,7 +4817,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4923,7 +4826,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4932,7 +4835,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4941,7 +4844,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4950,7 +4853,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4959,7 +4862,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4968,7 +4871,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4977,7 +4880,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4986,7 +4889,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
